--- a/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,257 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r469476255-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>609130</t>
+  </si>
+  <si>
+    <t>878570</t>
+  </si>
+  <si>
+    <t>469476255</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Great rates, lovely little kitchen, terrific staff!</t>
+  </si>
+  <si>
+    <t>Brianna at the front desk provided stellar service! It was genuine concierge level treatment which was completely unexpected at an extended stay budget hotel.The neighborhood is quite dodgy and not recommended, but it is right off of the main loop so going somewhere else is not a problem. Between Lyft, Uber and regular taxis, even without your own transportation, it isn't a big deal.The rooms are clean and the wifi is great. The 4th floor used to be for smokers and it is still dreadfully reminiscent of such and could use a very through steam cleaning, but the first floor I stayed on (the 2nd floor) was super clean.It's a fun little place to stay and I would recommend it to almost anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Brianna at the front desk provided stellar service! It was genuine concierge level treatment which was completely unexpected at an extended stay budget hotel.The neighborhood is quite dodgy and not recommended, but it is right off of the main loop so going somewhere else is not a problem. Between Lyft, Uber and regular taxis, even without your own transportation, it isn't a big deal.The rooms are clean and the wifi is great. The 4th floor used to be for smokers and it is still dreadfully reminiscent of such and could use a very through steam cleaning, but the first floor I stayed on (the 2nd floor) was super clean.It's a fun little place to stay and I would recommend it to almost anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r403442990-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>403442990</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>don't stay here</t>
+  </si>
+  <si>
+    <t>First of all, I don't think they cleaned the room becuase the floor was very sticky. In the first room, the shower did not work. After that, I got transfered to a second room and there was mold on the chairs and carpet. Both rooms had flies.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r341577736-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>341577736</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Feels like the Ghetto</t>
+  </si>
+  <si>
+    <t>This was the most terrible hotel experience I have ever had.  We paid for a week and were ready to leave after 2 days, but the management refused to give us any kind of a refund. (we did leave earlier than planned)  There was constant running and jumping from the room upstairs.  Well past midnight the neighbors in our hall were having a fight and yelling at each other on more than one occasion.  The parking lot was full of trash, as well as the elevator and laundry room.  When we complained about the noisy neighbors, the management told us that they were "nice" people.  We did not feel safe here and would advise that you do not stay here. On top of all this, our youngest daughter ended up with lice.  Can't prove that it came from this place, but it was sure filthy enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the most terrible hotel experience I have ever had.  We paid for a week and were ready to leave after 2 days, but the management refused to give us any kind of a refund. (we did leave earlier than planned)  There was constant running and jumping from the room upstairs.  Well past midnight the neighbors in our hall were having a fight and yelling at each other on more than one occasion.  The parking lot was full of trash, as well as the elevator and laundry room.  When we complained about the noisy neighbors, the management told us that they were "nice" people.  We did not feel safe here and would advise that you do not stay here. On top of all this, our youngest daughter ended up with lice.  Can't prove that it came from this place, but it was sure filthy enough!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r237738274-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>237738274</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Don't stay!</t>
+  </si>
+  <si>
+    <t>Stayed here two weeks. Waiting for our house finished so we could move in. Our car got broke into so they could steal the factory radio! Really!? My 6 year old also found a baggie of drugs the 1st week. Unfortunately we already paid for 2 weeks. Thief is horrible here. And our cars had alarms too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r227597434-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>227597434</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Would not stay here again</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks and I will not be returning. The office staff continued to blame me for things that were not happening in my apartment, the elevator is extremely slow, no pool, no breakfast, for over $300 a week it should at least offer free breakfast and have a pool, people there were very rude and "ghetto" I was offended by a racist comment that one of the staff members made and I seen the police come for residents at least 3 times during my 2 week stay. I would not recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r185252278-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>185252278</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>I like it!</t>
+  </si>
+  <si>
+    <t>I have been staying there for years. Never had a problem. Clean rooms.Great staff. In the Prossess of replacing the beds! My back was gratefull for that!Friendly service, Clean kitchenette, Great price. Short and sweet, Nice place!</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r135382052-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>135382052</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Very clean rooms</t>
+  </si>
+  <si>
+    <t>This is best place to stay if you looking for rooms with kitchen at dirt cheap price. I have stayed at Homewood suites at many locations; so I know what best quality means. If you are looking for clean place to stay for couple weeks or months with no hassle of leasing this place is good. Dont expect 5 star hotel facilities. Its just basic apartment with weekly price. Best part is there are no bugs. I am soo allergic to bed bugs so this place gets 5star for maintenance of  that. CONS: Bed is small for 2 people, Room service is once in 2 weeks so we have to do bit of work. I hated the comforter. we need to buy few essential stuff( thats how they keep price of basic room low). Have to pay for internet whose speed really sucks when hotel is full...rest of times its fine.I would definitely go back to value place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Forest Hill, responded to this reviewResponded July 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2012</t>
+  </si>
+  <si>
+    <t>This is best place to stay if you looking for rooms with kitchen at dirt cheap price. I have stayed at Homewood suites at many locations; so I know what best quality means. If you are looking for clean place to stay for couple weeks or months with no hassle of leasing this place is good. Dont expect 5 star hotel facilities. Its just basic apartment with weekly price. Best part is there are no bugs. I am soo allergic to bed bugs so this place gets 5star for maintenance of  that. CONS: Bed is small for 2 people, Room service is once in 2 weeks so we have to do bit of work. I hated the comforter. we need to buy few essential stuff( thats how they keep price of basic room low). Have to pay for internet whose speed really sucks when hotel is full...rest of times its fine.I would definitely go back to value place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r134489063-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>134489063</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Overall ok</t>
+  </si>
+  <si>
+    <t>I love the rooms very clean but my complaint is the beds are  extremely to HARD they have no pading at all wich makes for an un pleasant sleep tv is small but good selection of Chanel's kitchen was great but wish it had a oven I would stay again if there would be better bedsMoreShow less</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Forest Hill, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I love the rooms very clean but my complaint is the beds are  extremely to HARD they have no pading at all wich makes for an un pleasant sleep tv is small but good selection of Chanel's kitchen was great but wish it had a oven I would stay again if there would be better bedsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r116917700-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>116917700</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Quiet and Serene</t>
+  </si>
+  <si>
+    <t>I had a great time at this location.  I was pleasantly surprised at how quiet and serene the atmosphere was! I  Appreciated the quantity of washers and dryers in the laundry room too!  The staff was courteous and friendly.  The studio was very well appointed with all the appliances in working order.  The A/C unit worked especially well!!  I loved the simple yet effective layout!  I would like to thank the staff for a pleasant stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HMacGillis, Director of Sales at WoodSpring Suites Fort Worth Forest Hill, responded to this reviewResponded August 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2011</t>
+  </si>
+  <si>
+    <t>I had a great time at this location.  I was pleasantly surprised at how quiet and serene the atmosphere was! I  Appreciated the quantity of washers and dryers in the laundry room too!  The staff was courteous and friendly.  The studio was very well appointed with all the appliances in working order.  The A/C unit worked especially well!!  I loved the simple yet effective layout!  I would like to thank the staff for a pleasant stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r88576884-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>88576884</t>
+  </si>
+  <si>
+    <t>11/29/2010</t>
+  </si>
+  <si>
+    <t>I liked Value Place - I even made a video for you!</t>
+  </si>
+  <si>
+    <t>I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)
+When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.
+My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. 
+You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!
+Anyway, check out my review and my video about it here: (copy...I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!Anyway, check out my review and my video about it here: (copy &amp; paste into your browser)http://www.squidoo.com/extended-stay-hotels-in-fort-worth-and-dallasI'd stay here again, not because it's the most beautiful or elegant hotel, but because it's such a great place for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)
+When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.
+My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. 
+You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!
+Anyway, check out my review and my video about it here: (copy...I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!Anyway, check out my review and my video about it here: (copy &amp; paste into your browser)http://www.squidoo.com/extended-stay-hotels-in-fort-worth-and-dallasI'd stay here again, not because it's the most beautiful or elegant hotel, but because it's such a great place for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r75085775-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>75085775</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>This place sucks!  Do not stay here no matter how attractive the price!</t>
+  </si>
+  <si>
+    <t>My 11 yr old and I were in the area due to a family emergency and needed an inexpensive extended stay hotel.  The ONLY good thing I can say is that it was inexpensive compared to others in the area.  Although there is a HUGE digital sign out front stating a certain price, I was charged significantly more.  When I questioned the rate I was told I was getting the best rate they could offer??!!  Even though it was fairly new, about a year old, once in the place it was not well taken care of and the assistant manager was a complete nightmare!  Upon check out she inspected our room and came back and charged me for 7 plastic hangers (how petty and cheap can you get) which were NOT in the room when I got there.  Didn't even use hangers!  and said there was a big chip in the cheap night stand, which was there when we checked in and a hole in one of the kitchen chairs, again was there when we checked in.  My child and I only slept in this room and we are not in the habit of being destructive.  She knew our circumstance, yet did not think twice to add to the stress by being so ugly.  I even asked for the manager to contact me directly so I could at least voice my dissatisfaction and I am still waiting on his call....My 11 yr old and I were in the area due to a family emergency and needed an inexpensive extended stay hotel.  The ONLY good thing I can say is that it was inexpensive compared to others in the area.  Although there is a HUGE digital sign out front stating a certain price, I was charged significantly more.  When I questioned the rate I was told I was getting the best rate they could offer??!!  Even though it was fairly new, about a year old, once in the place it was not well taken care of and the assistant manager was a complete nightmare!  Upon check out she inspected our room and came back and charged me for 7 plastic hangers (how petty and cheap can you get) which were NOT in the room when I got there.  Didn't even use hangers!  and said there was a big chip in the cheap night stand, which was there when we checked in and a hole in one of the kitchen chairs, again was there when we checked in.  My child and I only slept in this room and we are not in the habit of being destructive.  She knew our circumstance, yet did not think twice to add to the stress by being so ugly.  I even asked for the manager to contact me directly so I could at least voice my dissatisfaction and I am still waiting on his call.  The assistant manager was nasty and sarcastic and this place was horrible.  It is the most basic accommodation I have ever experienced!  It is one room with a kitchenette, bathroom and 2 beds with a tiny TV.  If you need dishes, cooking untinsels or pretty much ANYTHING else you must buy them (yes buy them).  Literally they nickle and dime you for everything ($50 for a set of dishes for example).  Housekeeping is once a week and you are assigned 2 thin towels.  I guess you get what you pay for.  If I ever need such a place again, it will be well worth it to pay more and stay somewhere nicer.  I would NEVER recommend this chain to anyone under any circumstances!  It is unfortunate for them that I am in the travel industry and will badmouth this chain to anyone and everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My 11 yr old and I were in the area due to a family emergency and needed an inexpensive extended stay hotel.  The ONLY good thing I can say is that it was inexpensive compared to others in the area.  Although there is a HUGE digital sign out front stating a certain price, I was charged significantly more.  When I questioned the rate I was told I was getting the best rate they could offer??!!  Even though it was fairly new, about a year old, once in the place it was not well taken care of and the assistant manager was a complete nightmare!  Upon check out she inspected our room and came back and charged me for 7 plastic hangers (how petty and cheap can you get) which were NOT in the room when I got there.  Didn't even use hangers!  and said there was a big chip in the cheap night stand, which was there when we checked in and a hole in one of the kitchen chairs, again was there when we checked in.  My child and I only slept in this room and we are not in the habit of being destructive.  She knew our circumstance, yet did not think twice to add to the stress by being so ugly.  I even asked for the manager to contact me directly so I could at least voice my dissatisfaction and I am still waiting on his call....My 11 yr old and I were in the area due to a family emergency and needed an inexpensive extended stay hotel.  The ONLY good thing I can say is that it was inexpensive compared to others in the area.  Although there is a HUGE digital sign out front stating a certain price, I was charged significantly more.  When I questioned the rate I was told I was getting the best rate they could offer??!!  Even though it was fairly new, about a year old, once in the place it was not well taken care of and the assistant manager was a complete nightmare!  Upon check out she inspected our room and came back and charged me for 7 plastic hangers (how petty and cheap can you get) which were NOT in the room when I got there.  Didn't even use hangers!  and said there was a big chip in the cheap night stand, which was there when we checked in and a hole in one of the kitchen chairs, again was there when we checked in.  My child and I only slept in this room and we are not in the habit of being destructive.  She knew our circumstance, yet did not think twice to add to the stress by being so ugly.  I even asked for the manager to contact me directly so I could at least voice my dissatisfaction and I am still waiting on his call.  The assistant manager was nasty and sarcastic and this place was horrible.  It is the most basic accommodation I have ever experienced!  It is one room with a kitchenette, bathroom and 2 beds with a tiny TV.  If you need dishes, cooking untinsels or pretty much ANYTHING else you must buy them (yes buy them).  Literally they nickle and dime you for everything ($50 for a set of dishes for example).  Housekeeping is once a week and you are assigned 2 thin towels.  I guess you get what you pay for.  If I ever need such a place again, it will be well worth it to pay more and stay somewhere nicer.  I would NEVER recommend this chain to anyone under any circumstances!  It is unfortunate for them that I am in the travel industry and will badmouth this chain to anyone and everyone!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +896,715 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jessalyn P</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Brianna at the front desk provided stellar service! It was genuine concierge level treatment which was completely unexpected at an extended stay budget hotel.The neighborhood is quite dodgy and not recommended, but it is right off of the main loop so going somewhere else is not a problem. Between Lyft, Uber and regular taxis, even without your own transportation, it isn't a big deal.The rooms are clean and the wifi is great. The 4th floor used to be for smokers and it is still dreadfully reminiscent of such and could use a very through steam cleaning, but the first floor I stayed on (the 2nd floor) was super clean.It's a fun little place to stay and I would recommend it to almost anyone.More</t>
   </si>
   <si>
+    <t>0anonymous12900</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r403442990-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>4momD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r341577736-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>This was the most terrible hotel experience I have ever had.  We paid for a week and were ready to leave after 2 days, but the management refused to give us any kind of a refund. (we did leave earlier than planned)  There was constant running and jumping from the room upstairs.  Well past midnight the neighbors in our hall were having a fight and yelling at each other on more than one occasion.  The parking lot was full of trash, as well as the elevator and laundry room.  When we complained about the noisy neighbors, the management told us that they were "nice" people.  We did not feel safe here and would advise that you do not stay here. On top of all this, our youngest daughter ended up with lice.  Can't prove that it came from this place, but it was sure filthy enough!More</t>
   </si>
   <si>
+    <t>mamabearloveshard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r237738274-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>Stayed here two weeks. Waiting for our house finished so we could move in. Our car got broke into so they could steal the factory radio! Really!? My 6 year old also found a baggie of drugs the 1st week. Unfortunately we already paid for 2 weeks. Thief is horrible here. And our cars had alarms too!</t>
   </si>
   <si>
+    <t>Tiffany B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r227597434-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>I stayed here for 2 weeks and I will not be returning. The office staff continued to blame me for things that were not happening in my apartment, the elevator is extremely slow, no pool, no breakfast, for over $300 a week it should at least offer free breakfast and have a pool, people there were very rude and "ghetto" I was offended by a racist comment that one of the staff members made and I seen the police come for residents at least 3 times during my 2 week stay. I would not recommend.</t>
   </si>
   <si>
+    <t>Sundown62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r185252278-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Charms S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r135382052-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>This is best place to stay if you looking for rooms with kitchen at dirt cheap price. I have stayed at Homewood suites at many locations; so I know what best quality means. If you are looking for clean place to stay for couple weeks or months with no hassle of leasing this place is good. Dont expect 5 star hotel facilities. Its just basic apartment with weekly price. Best part is there are no bugs. I am soo allergic to bed bugs so this place gets 5star for maintenance of  that. CONS: Bed is small for 2 people, Room service is once in 2 weeks so we have to do bit of work. I hated the comforter. we need to buy few essential stuff( thats how they keep price of basic room low). Have to pay for internet whose speed really sucks when hotel is full...rest of times its fine.I would definitely go back to value place.More</t>
   </si>
   <si>
+    <t>Hlrstr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r134489063-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>I love the rooms very clean but my complaint is the beds are  extremely to HARD they have no pading at all wich makes for an un pleasant sleep tv is small but good selection of Chanel's kitchen was great but wish it had a oven I would stay again if there would be better bedsMore</t>
   </si>
   <si>
+    <t>SoniaP7132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r116917700-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -346,6 +373,9 @@
   </si>
   <si>
     <t>I had a great time at this location.  I was pleasantly surprised at how quiet and serene the atmosphere was! I  Appreciated the quantity of washers and dryers in the laundry room too!  The staff was courteous and friendly.  The studio was very well appointed with all the appliances in working order.  The A/C unit worked especially well!!  I loved the simple yet effective layout!  I would like to thank the staff for a pleasant stay!!More</t>
+  </si>
+  <si>
+    <t>RichTheTravelGuy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r88576884-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -375,6 +405,9 @@
 My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. 
 You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!
 Anyway, check out my review and my video about it here: (copy...I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!Anyway, check out my review and my video about it here: (copy &amp; paste into your browser)http://www.squidoo.com/extended-stay-hotels-in-fort-worth-and-dallasI'd stay here again, not because it's the most beautiful or elegant hotel, but because it's such a great place for the money.More</t>
+  </si>
+  <si>
+    <t>Txlele</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r75085775-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -900,43 +933,47 @@
       <c r="A2" t="n">
         <v>55795</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -956,50 +993,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55795</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1017,41 +1058,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55795</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>182569</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -1070,41 +1115,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55795</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1133,41 +1182,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55795</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>6994</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -1196,50 +1249,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55795</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>182571</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1263,50 +1320,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55795</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>182572</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1328,47 +1389,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55795</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182573</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -1395,56 +1460,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55795</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>182574</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1462,56 +1531,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55795</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>182575</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1535,50 +1608,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55795</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>182576</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1602,7 +1679,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_782.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jessalyn P</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r574833399-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>609130</t>
+  </si>
+  <si>
+    <t>878570</t>
+  </si>
+  <si>
+    <t>574833399</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Was good for the price and area rooms clean did not have any problems while we stayed the week. We stayed two weeks total while visiting family in the area..staff was nice and took care of us no complaints.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r522428205-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>522428205</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>It was named value place when I stayed here</t>
+  </si>
+  <si>
+    <t>I lived at this hotel for a couple of years. It served its purpose nicely, I met some really awesome people while I was a resident here, and it was a good memory for me to have lived there. And if I ever had to, I'd live there again if I could afford to.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r469476255-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
-    <t>609130</t>
-  </si>
-  <si>
-    <t>878570</t>
-  </si>
-  <si>
     <t>469476255</t>
   </si>
   <si>
@@ -183,9 +222,6 @@
     <t>Brianna at the front desk provided stellar service! It was genuine concierge level treatment which was completely unexpected at an extended stay budget hotel.The neighborhood is quite dodgy and not recommended, but it is right off of the main loop so going somewhere else is not a problem. Between Lyft, Uber and regular taxis, even without your own transportation, it isn't a big deal.The rooms are clean and the wifi is great. The 4th floor used to be for smokers and it is still dreadfully reminiscent of such and could use a very through steam cleaning, but the first floor I stayed on (the 2nd floor) was super clean.It's a fun little place to stay and I would recommend it to almost anyone.More</t>
   </si>
   <si>
-    <t>0anonymous12900</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r403442990-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -207,9 +243,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>4momD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r341577736-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -228,7 +261,49 @@
     <t>This was the most terrible hotel experience I have ever had.  We paid for a week and were ready to leave after 2 days, but the management refused to give us any kind of a refund. (we did leave earlier than planned)  There was constant running and jumping from the room upstairs.  Well past midnight the neighbors in our hall were having a fight and yelling at each other on more than one occasion.  The parking lot was full of trash, as well as the elevator and laundry room.  When we complained about the noisy neighbors, the management told us that they were "nice" people.  We did not feel safe here and would advise that you do not stay here. On top of all this, our youngest daughter ended up with lice.  Can't prove that it came from this place, but it was sure filthy enough!More</t>
   </si>
   <si>
-    <t>mamabearloveshard</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r265001619-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>265001619</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>GREAT QUIET PLACE</t>
+  </si>
+  <si>
+    <t>Was very quiet barely knew anyone was there let alone those w/kids.. The night person was very helpful &amp; lives on the property. Loved it there &amp; will be back when I relocate. THe internet was very quick just for the basic$10. ARea was nice &amp; very quiet, right off the highway &amp; close to food &amp; shopping places. about 30-40min dwtn Dallas &amp; 15-20min dwtn Ft /Worth</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r244885458-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>244885458</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>clean and safe</t>
+  </si>
+  <si>
+    <t>I was working in Granbury, TX and needed a place to stay. Not knowing anything about Granbury I first stayed in Forrest Hill (Fort Worth) at this place. I was so very surprised to see how clean it was. I always need to stay in a safe place when traveling and I was very impressed with the safety they provide for their tenants. I had a clean bathroom with hot running water, a clean bed to sleep in, and a small kitchen with full size refrigerator. All this for less than any hotel that offers less per 7 nights. You only pay for the amenities you use, e.g. cleaning service, linen, kitchen-wares, and internet to name a few.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Fort Worth Forest Hill, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I was working in Granbury, TX and needed a place to stay. Not knowing anything about Granbury I first stayed in Forrest Hill (Fort Worth) at this place. I was so very surprised to see how clean it was. I always need to stay in a safe place when traveling and I was very impressed with the safety they provide for their tenants. I had a clean bathroom with hot running water, a clean bed to sleep in, and a small kitchen with full size refrigerator. All this for less than any hotel that offers less per 7 nights. You only pay for the amenities you use, e.g. cleaning service, linen, kitchen-wares, and internet to name a few.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r237738274-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -246,9 +321,6 @@
     <t>Stayed here two weeks. Waiting for our house finished so we could move in. Our car got broke into so they could steal the factory radio! Really!? My 6 year old also found a baggie of drugs the 1st week. Unfortunately we already paid for 2 weeks. Thief is horrible here. And our cars had alarms too!</t>
   </si>
   <si>
-    <t>Tiffany B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r227597434-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -264,9 +336,6 @@
     <t>I stayed here for 2 weeks and I will not be returning. The office staff continued to blame me for things that were not happening in my apartment, the elevator is extremely slow, no pool, no breakfast, for over $300 a week it should at least offer free breakfast and have a pool, people there were very rude and "ghetto" I was offended by a racist comment that one of the staff members made and I seen the police come for residents at least 3 times during my 2 week stay. I would not recommend.</t>
   </si>
   <si>
-    <t>Sundown62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r185252278-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -285,7 +354,43 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Charms S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r152345171-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>152345171</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>High Theft Area</t>
+  </si>
+  <si>
+    <t>The hotel is nice.  It is a good value for room, but this is a very high theft area.  There are no cameras on the outside of the building and poor parking lot lighting.  Value Place really should put up more lighting in parking lot and cameras watching the parking lot.  They already have a monitoring system in place for watching the inside of the hotel.  It would not cost much to add cameras to the outside of the building and tie into existing monitoring system.  As long as this hotel has been in business and the reported thefts associated with this location, it just shows that money is more important than security.  There is a report of a vehicle being stolen in 2010.  In 2013, I know of two more thefts that were a smash and grab.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The hotel is nice.  It is a good value for room, but this is a very high theft area.  There are no cameras on the outside of the building and poor parking lot lighting.  Value Place really should put up more lighting in parking lot and cameras watching the parking lot.  They already have a monitoring system in place for watching the inside of the hotel.  It would not cost much to add cameras to the outside of the building and tie into existing monitoring system.  As long as this hotel has been in business and the reported thefts associated with this location, it just shows that money is more important than security.  There is a report of a vehicle being stolen in 2010.  In 2013, I know of two more thefts that were a smash and grab.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r137904989-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>137904989</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Loved my stay!</t>
+  </si>
+  <si>
+    <t>Myself &amp; my 3 children stayed here for a month until our apartment was ready. It was excellent. it was spot free clean, &amp; the customer service was amazing. The rooms have a full kitchen inside of them. The only drawback is that the beds could be a little more comfortable. But overall, I would make it my new getaway place.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r135382052-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -315,9 +420,6 @@
     <t>This is best place to stay if you looking for rooms with kitchen at dirt cheap price. I have stayed at Homewood suites at many locations; so I know what best quality means. If you are looking for clean place to stay for couple weeks or months with no hassle of leasing this place is good. Dont expect 5 star hotel facilities. Its just basic apartment with weekly price. Best part is there are no bugs. I am soo allergic to bed bugs so this place gets 5star for maintenance of  that. CONS: Bed is small for 2 people, Room service is once in 2 weeks so we have to do bit of work. I hated the comforter. we need to buy few essential stuff( thats how they keep price of basic room low). Have to pay for internet whose speed really sucks when hotel is full...rest of times its fine.I would definitely go back to value place.More</t>
   </si>
   <si>
-    <t>Hlrstr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r134489063-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -342,9 +444,6 @@
     <t>I love the rooms very clean but my complaint is the beds are  extremely to HARD they have no pading at all wich makes for an un pleasant sleep tv is small but good selection of Chanel's kitchen was great but wish it had a oven I would stay again if there would be better bedsMore</t>
   </si>
   <si>
-    <t>SoniaP7132</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r116917700-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
   </si>
   <si>
@@ -363,9 +462,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>HMacGillis, Director of Sales at WoodSpring Suites Fort Worth Forest Hill, responded to this reviewResponded August 22, 2011</t>
   </si>
   <si>
@@ -375,7 +471,40 @@
     <t>I had a great time at this location.  I was pleasantly surprised at how quiet and serene the atmosphere was! I  Appreciated the quantity of washers and dryers in the laundry room too!  The staff was courteous and friendly.  The studio was very well appointed with all the appliances in working order.  The A/C unit worked especially well!!  I loved the simple yet effective layout!  I would like to thank the staff for a pleasant stay!!More</t>
   </si>
   <si>
-    <t>RichTheTravelGuy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r116868682-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>116868682</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Great place!!</t>
+  </si>
+  <si>
+    <t>I had a great experience during my stay at this Value Place location!  It is very centrally located within the Metroplex.  The room was very clean and well appointed with ammenities you'd find in an apartment.  The entire facility (lawn, laundry room, stairwells) was well maintained daily!   I was also pleasantly surprised at how quiet and comfortable the place was eventhough there are four floors and many rooms per floor.  The entire staff was very courteous and friendly.  I will definitely be staying here again when I'm in the Dallas/Fort Worth Metroplex!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a great experience during my stay at this Value Place location!  It is very centrally located within the Metroplex.  The room was very clean and well appointed with ammenities you'd find in an apartment.  The entire facility (lawn, laundry room, stairwells) was well maintained daily!   I was also pleasantly surprised at how quiet and comfortable the place was eventhough there are four floors and many rooms per floor.  The entire staff was very courteous and friendly.  I will definitely be staying here again when I'm in the Dallas/Fort Worth Metroplex!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r88776457-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>88776457</t>
+  </si>
+  <si>
+    <t>12/01/2010</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>My wife and I are retired and we stay at Valuer Place Forest Hill every time we are in town!  The staff is quite friendly and attentive to our needs.  The room is always super clean and it is centrally located with easy on and off Hwy 20 E.  It is a great value for the dollar......we get much more than we pay for!  We would highly recommend staying there if you want a nice, clean place to stay!!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r88576884-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -405,9 +534,6 @@
 My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. 
 You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!
 Anyway, check out my review and my video about it here: (copy...I travel a lot and do reviews for my readers.   I was so impressed with this hotel for it's overall value, I also made a video.  (see the link below)When planning to stay in the Fort Worth and Arlington Texas area recently, I made reservations at a really nice, plush hotel that was over $200 a night.  Then a friend recommended I stay at Value Place, an extended stay hotel.   I stayed at Value Place for about $200...for the entire week!   As a guy who doesn't require plush at hotels, I was pretty happy to save that much money.My only complaint:  It's pretty basic.  I mean no bagels and stuff in the morning.   Of course I made coffee in the room and drove through McDonald's on my way to a meeting.  But I've gotten used to the simple breakfast layouts at other hotels.  The manager said that's what allows them to charge so little, so I guess it's fair.  Just something to factor into your expectations I guess. You can read my whole review by clicking the link below, but simply put, Value Place is a great place to stay for convenience, quality and it's over all value.  I liked the rooms, the full kitchen and, believe it or not, the laundry room.  I took fewer clothes and washed them twice during my visit.  Pretty handy!Anyway, check out my review and my video about it here: (copy &amp; paste into your browser)http://www.squidoo.com/extended-stay-hotels-in-fort-worth-and-dallasI'd stay here again, not because it's the most beautiful or elegant hotel, but because it's such a great place for the money.More</t>
-  </si>
-  <si>
-    <t>Txlele</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609130-d878570-r75085775-WoodSpring_Suites_Fort_Worth_Forest_Hill-Forest_Hill_Texas.html</t>
@@ -933,245 +1059,227 @@
       <c r="A2" t="n">
         <v>55795</v>
       </c>
-      <c r="B2" t="n">
-        <v>175446</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55795</v>
       </c>
-      <c r="B3" t="n">
-        <v>182568</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55795</v>
       </c>
-      <c r="B4" t="n">
-        <v>182569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55795</v>
       </c>
-      <c r="B5" t="n">
-        <v>182570</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1182,121 +1290,103 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55795</v>
       </c>
-      <c r="B6" t="n">
-        <v>6994</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55795</v>
       </c>
-      <c r="B7" t="n">
-        <v>182571</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1305,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1320,287 +1410,259 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55795</v>
       </c>
-      <c r="B8" t="n">
-        <v>182572</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="n">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
         <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55795</v>
       </c>
-      <c r="B9" t="n">
-        <v>182573</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>106</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55795</v>
       </c>
-      <c r="B10" t="n">
-        <v>182574</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>115</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" t="s">
-        <v>117</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55795</v>
       </c>
-      <c r="B11" t="n">
-        <v>182575</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1608,70 +1670,66 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55795</v>
       </c>
-      <c r="B12" t="n">
-        <v>182576</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
         <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" t="s">
-        <v>115</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1679,7 +1737,547 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
         <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55795</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
